--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/App AiNSURANCE/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{5E1C72A1-EF68-4666-855E-40FA2433BD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59235449-72F0-4E7B-BF56-74930910307B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7AAEA9C-4B58-4341-A229-35E442C3B5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -64,8 +65,37 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D6D0BD56-A654-4024-8F00-3D06BFFCCE68}</author>
+    <author>tc={20303CBE-92B6-46C1-AE91-C558945357ED}</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{D6D0BD56-A654-4024-8F00-3D06BFFCCE68}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Llamada Cliente, Correo Cliente, WhatsApp Cliente.
+Validacion Preventiva Por Cliente.
+Patrullaje AI27</t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{20303CBE-92B6-46C1-AE91-C558945357ED}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Coordenada definida después de análisis. Independiente si se encuentra o no</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
   <si>
     <t>Dia</t>
   </si>
@@ -287,6 +317,102 @@
   </si>
   <si>
     <t>Fecha y Hora</t>
+  </si>
+  <si>
+    <t>88BA6C</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>18.94724 -97.723162</t>
+  </si>
+  <si>
+    <t>No localizado</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54AU8K </t>
+  </si>
+  <si>
+    <t>3WKYD40X8PF524554</t>
+  </si>
+  <si>
+    <t>20.532298, -100.649122</t>
+  </si>
+  <si>
+    <t>20.363655, -100.799137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miercoles </t>
+  </si>
+  <si>
+    <t>74AP5L</t>
+  </si>
+  <si>
+    <t>3WKZD40X2MF517227</t>
+  </si>
+  <si>
+    <t>37.95%</t>
+  </si>
+  <si>
+    <t>19.762616, -98.64916</t>
+  </si>
+  <si>
+    <t>Edo. Méx</t>
+  </si>
+  <si>
+    <t>86AR5A</t>
+  </si>
+  <si>
+    <t>3WKAPD9X6FF862541</t>
+  </si>
+  <si>
+    <t>18.844007  -97.325867</t>
+  </si>
+  <si>
+    <t>18.830322,-97.506048</t>
+  </si>
+  <si>
+    <t>33AV4E</t>
+  </si>
+  <si>
+    <t>T127</t>
+  </si>
+  <si>
+    <t>3WKAD40X0EF844966</t>
+  </si>
+  <si>
+    <t>19.496167, -99.015053</t>
+  </si>
+  <si>
+    <t>NO APLICA</t>
+  </si>
+  <si>
+    <t>San Simón de Bravo</t>
+  </si>
+  <si>
+    <t>Orizaba-Puebla</t>
+  </si>
+  <si>
+    <t>San Pedro Tenango</t>
+  </si>
+  <si>
+    <t>Querétaro-Celaya</t>
+  </si>
+  <si>
+    <t>Xala</t>
+  </si>
+  <si>
+    <t>San José Cuyachapa</t>
+  </si>
+  <si>
+    <t>Ecatepec de Morelos</t>
+  </si>
+  <si>
+    <t>Circuito Exterior Mexiquense</t>
   </si>
 </sst>
 </file>
@@ -296,7 +422,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,16 +469,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -380,12 +546,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFED7D31"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,31 +638,48 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -679,6 +908,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -750,12 +998,12 @@
     <tableColumn id="5" xr3:uid="{6023E3BD-DA77-4CA0-8BC2-328088C6B118}" name="Eco" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{CF1C59E5-1622-46BA-8A85-54A24C9A4ECD}" name="Marca" dataDxfId="7"/>
     <tableColumn id="8" xr3:uid="{4814B250-BF1D-4E0E-8731-D1025BE70205}" name="Modelo" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{909456B9-B519-43FB-BC4A-4EF842FD21B7}" name="Latitud" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{F24E2EAE-840C-4646-9C00-FE8DE944DC78}" name="Longitud" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{65271329-A6BA-4842-8EE2-00C63D054BA0}" name="Estado" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{6D79DC00-A6B1-4466-B38C-02FDC09E7D51}" name="Municipio" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{909456B9-B519-43FB-BC4A-4EF842FD21B7}" name="Latitud" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{F24E2EAE-840C-4646-9C00-FE8DE944DC78}" name="Longitud" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{65271329-A6BA-4842-8EE2-00C63D054BA0}" name="Estado" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{6D79DC00-A6B1-4466-B38C-02FDC09E7D51}" name="Municipio" dataDxfId="0"/>
     <tableColumn id="16" xr3:uid="{1AB29E05-F88D-4E6E-B6E0-41C5173BD739}" name="Tramo" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{FE23521C-B200-4009-8A0C-8C5439A08986}" name="Estatus" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{FE23521C-B200-4009-8A0C-8C5439A08986}" name="Estatus" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1069,12 +1317,25 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C7" dT="2023-07-28T22:32:56.14" personId="{AB0A7C79-BF13-48F7-BC32-9B83AF6FB2B9}" id="{D6D0BD56-A654-4024-8F00-3D06BFFCCE68}">
+    <text>Llamada Cliente, Correo Cliente, WhatsApp Cliente.
+Validacion Preventiva Por Cliente.
+Patrullaje AI27</text>
+  </threadedComment>
+  <threadedComment ref="H7" dT="2023-07-28T22:34:57.08" personId="{AB0A7C79-BF13-48F7-BC32-9B83AF6FB2B9}" id="{20303CBE-92B6-46C1-AE91-C558945357ED}">
+    <text>Coordenada definida después de análisis. Independiente si se encuentra o no</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFB2F68-96FA-47C0-9BB5-E334A0D7B5ED}">
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,8 +1348,11 @@
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="12" width="29.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1748,79 +2012,209 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="A17" s="25">
+        <v>45167.890277777777</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2024</v>
+      </c>
+      <c r="H17" s="5">
+        <v>18.947240000000001</v>
+      </c>
+      <c r="I17" s="17">
+        <v>-97.723162000000002</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="A18" s="25">
+        <v>45167.65</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="H18" s="5">
+        <v>20.532298000000001</v>
+      </c>
+      <c r="I18" s="17">
+        <v>-100.64912200000001</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="A19" s="25">
+        <v>45168.447222222225</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2021</v>
+      </c>
+      <c r="H19" s="5">
+        <v>19.762616000000001</v>
+      </c>
+      <c r="I19" s="17">
+        <v>-98.649159999999995</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="A20" s="25">
+        <v>45168.806944444441</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2015</v>
+      </c>
+      <c r="H20" s="5">
+        <v>18.844007000000001</v>
+      </c>
+      <c r="I20" s="17">
+        <v>-97.325867000000002</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="A21" s="25">
+        <v>45169.044444444444</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2014</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19.496167</v>
+      </c>
+      <c r="I21" s="17">
+        <v>-99.015052999999995</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
@@ -1981,4 +2375,570 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE1C679-EC10-417F-BFD7-5A90E4EAE600}">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="12">
+        <v>45167</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="14">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="12">
+        <v>45166</v>
+      </c>
+      <c r="O1" s="14">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="P1" s="12">
+        <v>45167</v>
+      </c>
+      <c r="Q1" s="15">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="R1" s="14">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>45167</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="12">
+        <v>45167</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="P2" s="12">
+        <v>45167</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0.59930555555555554</v>
+      </c>
+      <c r="R2" s="15">
+        <v>0</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>45168</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="5">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="12">
+        <v>45168</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="P3" s="12">
+        <v>45168</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="R3" s="15">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>45168</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2015</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="12">
+        <v>45168</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.80694444444444446</v>
+      </c>
+      <c r="P4" s="12">
+        <v>45168</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0.85833333333333339</v>
+      </c>
+      <c r="R4" s="15">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2014</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.2263</v>
+      </c>
+      <c r="J5" s="14">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="12">
+        <v>45169</v>
+      </c>
+      <c r="O5" s="14">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="P5" s="12">
+        <v>45169</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="R5" s="15">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <f>+A1+J1</f>
+        <v>45167.890277777777</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2024</v>
+      </c>
+      <c r="H8" s="5">
+        <v>18.947240000000001</v>
+      </c>
+      <c r="I8">
+        <v>-97.723162000000002</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <f t="shared" ref="A9:A12" si="0">+A2+J2</f>
+        <v>45167.65</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20.532298000000001</v>
+      </c>
+      <c r="I9">
+        <v>-100.64912200000001</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
+        <v>45168.447222222225</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="H10" s="5">
+        <v>19.762616000000001</v>
+      </c>
+      <c r="I10">
+        <v>-98.649159999999995</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
+        <v>45168.806944444441</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="H11" s="5">
+        <v>18.844007000000001</v>
+      </c>
+      <c r="I11">
+        <v>-97.325867000000002</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
+        <v>45169.044444444444</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2014</v>
+      </c>
+      <c r="H12" s="5">
+        <v>19.496167</v>
+      </c>
+      <c r="I12">
+        <v>-99.015052999999995</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
   <si>
     <t>Fecha y Hora</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Whatsapp cliente</t>
   </si>
   <si>
-    <t>Llamada Cliente</t>
-  </si>
-  <si>
     <t>53FA7F</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>13BA2M</t>
   </si>
   <si>
-    <t>DSA123</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Axapusco</t>
-  </si>
-  <si>
-    <t>Ecatepec</t>
   </si>
   <si>
     <t>Tepozotlán - Palmillas</t>
@@ -675,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,13 +724,13 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>2023</v>
@@ -751,16 +742,16 @@
         <v>-99.28489500000001</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -774,13 +765,13 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>2013</v>
@@ -792,16 +783,16 @@
         <v>-99.84633700000001</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -815,13 +806,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>2006</v>
@@ -833,16 +824,16 @@
         <v>-99086405</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -856,13 +847,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>2021</v>
@@ -874,16 +865,16 @@
         <v>-97.88057000000001</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -897,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>2019</v>
@@ -915,16 +906,16 @@
         <v>-97.388728</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -938,13 +929,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2019</v>
@@ -956,16 +947,16 @@
         <v>-97.388728</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -979,13 +970,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8">
         <v>2023</v>
@@ -997,16 +988,16 @@
         <v>-99.64377</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1020,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9">
         <v>2023</v>
@@ -1038,16 +1029,16 @@
         <v>-98.18660199999999</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1061,13 +1052,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>2024</v>
@@ -1079,16 +1070,16 @@
         <v>-100.481453</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1102,13 +1093,13 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <v>2021</v>
@@ -1120,16 +1111,16 @@
         <v>-100.844003</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1143,13 +1134,13 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12">
         <v>2020</v>
@@ -1161,16 +1152,16 @@
         <v>-99.057441</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1184,13 +1175,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13">
         <v>2018</v>
@@ -1202,16 +1193,16 @@
         <v>-97.422569</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1225,13 +1216,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>2019</v>
@@ -1243,16 +1234,16 @@
         <v>-98.20190719999999</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1266,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>2023</v>
@@ -1284,16 +1275,16 @@
         <v>-97.38853</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1307,13 +1298,13 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>2023</v>
@@ -1325,16 +1316,16 @@
         <v>-100.848417</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1348,13 +1339,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>2024</v>
@@ -1366,16 +1357,16 @@
         <v>-97.723162</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1389,13 +1380,13 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G18">
         <v>2023</v>
@@ -1407,16 +1398,16 @@
         <v>-100.649122</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1430,13 +1421,13 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19">
         <v>2021</v>
@@ -1448,16 +1439,16 @@
         <v>-98.64915999999999</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1471,13 +1462,13 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20">
         <v>2015</v>
@@ -1489,16 +1480,16 @@
         <v>-97.325867</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1512,13 +1503,13 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21">
         <v>2014</v>
@@ -1530,16 +1521,16 @@
         <v>-99.01505299999999</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" t="s">
         <v>94</v>
-      </c>
-      <c r="M21" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1553,13 +1544,13 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22">
         <v>2021</v>
@@ -1571,16 +1562,16 @@
         <v>-98.973303</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1594,13 +1585,13 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G23">
         <v>2024</v>
@@ -1612,57 +1603,16 @@
         <v>-98.78406099999999</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2">
-        <v>45230.55939814815</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24">
-        <v>2023</v>
-      </c>
-      <c r="H24">
-        <v>19.7626</v>
-      </c>
-      <c r="I24">
-        <v>-98.64919999999999</v>
-      </c>
-      <c r="J24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" t="s">
         <v>95</v>
-      </c>
-      <c r="M24" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
